--- a/US/data/BTS/TRPT/table_01_35_010821.xlsx
+++ b/US/data/BTS/TRPT/table_01_35_010821.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NTS\2021\123021 December\to web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NTS\2022\033122 March\toWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A41F6E0-B053-42E2-8ECF-07618DB4D81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1ADDCA-BE4C-4DA4-993B-75763AB19F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="2565" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-35" sheetId="28" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
   <si>
     <t>Rail</t>
   </si>
@@ -855,50 +855,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2002-19: Association of American Railroads, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Railroad Facts </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Washington, DC: Annual Issues), p. 73.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2001-19: Association of American Railroads, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Railroad Facts </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Washington, DC: Annual Issues), p. 73.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1965-70: Civil Aeronautics Board, </t>
     </r>
     <r>
@@ -1156,19 +1112,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">KEY: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>N = data do not exist; R = revised; U = data are not available.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Table 1-35:  U.S. Vehicle-Miles (millions) </t>
   </si>
   <si>
@@ -1310,6 +1253,63 @@
         <family val="2"/>
       </rPr>
       <t>, available at https://www.transit.dot.gov/ntd/ntd-data as of Nov. 23, 2021.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2002-20: Association of American Railroads, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Railroad Facts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Washington, DC: Annual Issues), p. 73.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2001-20: Association of American Railroads, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Railroad Facts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Washington, DC: Annual Issues), p. 73.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KEY: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N = data do not exist; U = data are not available.</t>
     </r>
   </si>
 </sst>
@@ -1317,12 +1317,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="173" formatCode="\(\R\)\ #,##0"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1686,7 +1685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1708,17 +1707,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1867,7 +1855,7 @@
   <cellStyleXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
@@ -1877,7 +1865,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1907,8 +1895,8 @@
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1917,12 +1905,12 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1959,26 +1947,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="37" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1995,22 +1983,10 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2029,9 +2005,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2042,31 +2015,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2078,21 +2037,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="100">
@@ -2197,56 +2164,7 @@
     <cellStyle name="Total 2" xfId="92" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
     <cellStyle name="Warning Text 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -2606,60 +2524,61 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection activeCell="A78" sqref="A78"/>
+      <selection pane="topRight" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52:V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="19" customWidth="1"/>
-    <col min="2" max="38" width="9.7109375" style="19" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="33.7109375" style="13" customWidth="1"/>
+    <col min="2" max="37" width="8.7109375" style="13" customWidth="1"/>
+    <col min="38" max="38" width="8.7109375" style="18" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
+      <c r="A1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
     </row>
     <row r="2" spans="1:38" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
@@ -2723,60 +2642,60 @@
       <c r="U2" s="1">
         <v>2003</v>
       </c>
-      <c r="V2" s="20">
+      <c r="V2" s="1">
         <v>2004</v>
       </c>
-      <c r="W2" s="20">
+      <c r="W2" s="1">
         <v>2005</v>
       </c>
-      <c r="X2" s="20">
+      <c r="X2" s="1">
         <v>2006</v>
       </c>
-      <c r="Y2" s="20">
+      <c r="Y2" s="1">
         <v>2007</v>
       </c>
-      <c r="Z2" s="20">
+      <c r="Z2" s="1">
         <v>2008</v>
       </c>
-      <c r="AA2" s="20">
+      <c r="AA2" s="1">
         <v>2009</v>
       </c>
-      <c r="AB2" s="20">
+      <c r="AB2" s="1">
         <v>2010</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AC2" s="1">
         <v>2011</v>
       </c>
-      <c r="AD2" s="20">
+      <c r="AD2" s="1">
         <v>2012</v>
       </c>
-      <c r="AE2" s="20">
+      <c r="AE2" s="1">
         <v>2013</v>
       </c>
-      <c r="AF2" s="20">
+      <c r="AF2" s="1">
         <v>2014</v>
       </c>
-      <c r="AG2" s="20">
+      <c r="AG2" s="1">
         <v>2015</v>
       </c>
-      <c r="AH2" s="20">
+      <c r="AH2" s="1">
         <v>2016</v>
       </c>
-      <c r="AI2" s="20">
+      <c r="AI2" s="1">
         <v>2017</v>
       </c>
-      <c r="AJ2" s="20">
+      <c r="AJ2" s="1">
         <v>2018</v>
       </c>
-      <c r="AK2" s="20">
+      <c r="AK2" s="1">
         <v>2019</v>
       </c>
-      <c r="AL2" s="20">
+      <c r="AL2" s="1">
         <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
@@ -2804,18 +2723,18 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
     </row>
     <row r="4" spans="1:38" ht="16.5" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -2827,114 +2746,114 @@
       <c r="C4" s="5">
         <v>1134</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2068</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1637.5838349999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>2276.0199750000002</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>3025.7421319999999</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>3963.2682650000002</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>3854.4145050000002</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>3995.0860499999999</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>4156.4036749999996</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>4377.8861820000002</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>4627.8062609999997</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>4807.1376950000003</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>4907.1318039999996</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>5029.7205130000002</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>5326.1951730000001</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>5662.2277720000002</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>5544.7248470000004</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>5612.6457499999997</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <v>6105.7433600000004</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <v>6602.0610930000003</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <v>6716.4713700000002</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <v>6605.5970530000004</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="5">
         <v>6732.5301719999998</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="5">
         <v>6445.9991360000004</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="5">
         <v>5935.2717990000001</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="5">
         <v>5975.7802259999999</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="5">
         <v>6004.5818069999996</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="5">
         <v>5956.1651000000002</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AE4" s="5">
         <v>5964.9822519999998</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="5">
         <v>5947.3504579999999</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AG4" s="5">
         <v>6045.8217949999998</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AH4" s="5">
         <v>6227.3480369999997</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4" s="5">
         <v>6337.8040899999996</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="5">
         <v>6609.0114130000002</v>
       </c>
-      <c r="AK4" s="40">
+      <c r="AK4" s="5">
         <v>6814.9986060000001</v>
       </c>
-      <c r="AL4" s="6">
+      <c r="AL4" s="5">
         <v>4214.2617419999997</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5">
@@ -3166,350 +3085,350 @@
       </c>
     </row>
     <row r="7" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="7">
         <v>587011.52948288992</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>722696.37612613419</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="7">
         <v>916700</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <v>1033950</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="7">
         <v>1111596</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="7">
         <v>1246797.9594410744</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="7">
         <v>1408265.8688728141</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="7">
         <v>1358185.2843326859</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="7">
         <v>1371569.0785612224</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="7">
         <v>1374708.8624403821</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="7">
         <v>1406089.3845566835</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="7">
         <v>1438294</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="7">
         <v>1469854</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="7">
         <v>1502556</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="7">
         <v>1549577</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="7">
         <v>1569270</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="7">
         <v>1600287</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="7">
         <v>1627365.4107770515</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="7">
         <v>1658474</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="7">
         <v>1671967.0991587027</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="7">
         <v>1699890.2867777827</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="7">
         <v>1708420.660011176</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="7">
         <v>1690534.3231176608</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="7">
         <v>2104415.8053427939</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="7">
         <v>2024756.9907035448</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AA7" s="7">
         <v>2015714.0704148812</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AB7" s="7">
         <v>2025744.563833154</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AC7" s="7">
         <v>2046282.4316399191</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AD7" s="7">
         <v>2062827.7680215263</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AE7" s="7">
         <v>2074423.0647171612</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AF7" s="7">
         <v>2072071.3967225966</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AG7" s="7">
         <v>2147840.4769578804</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AH7" s="7">
         <v>2191764.138284347</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AI7" s="7">
         <v>2220800.5357290758</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AJ7" s="7">
         <v>2232587.8189197937</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AK7" s="7">
         <v>2254308.9051620299</v>
       </c>
-      <c r="AL7" s="12">
+      <c r="AL7" s="7">
         <v>1896549.481525647</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="A8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>2979</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <v>5629</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="7">
         <v>10214</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="7">
         <v>9086</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="7">
         <v>9557</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="7">
         <v>9178</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="7">
         <v>9557</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="7">
         <v>9906</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="7">
         <v>10240</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="7">
         <v>9797</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="7">
         <v>9920</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="7">
         <v>10081</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="7">
         <v>10283</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="7">
         <v>10584</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="7">
         <v>10469</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="7">
         <v>9632.7605583443183</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="7">
         <v>9552</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="7">
         <v>9576.0414593912756</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="7">
         <v>10122.332207647083</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="7">
         <v>10454.296888622504</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="7">
         <v>12049.478512421985</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="7">
         <v>21396.183703885388</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="Z8" s="7">
         <v>20810.707047222146</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA8" s="7">
         <v>20822.042300230925</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AB8" s="7">
         <v>18512.901975886954</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AC8" s="7">
         <v>18542.233514659467</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AD8" s="7">
         <v>21385.314178362365</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AE8" s="7">
         <v>20366.17971971475</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AF8" s="7">
         <v>19969.66747027808</v>
       </c>
-      <c r="AG8" s="12">
+      <c r="AG8" s="7">
         <v>19606.314745591448</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AH8" s="7">
         <v>20445.304946576933</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AI8" s="7">
         <v>20149.299733676766</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AJ8" s="7">
         <v>20076.176607078058</v>
       </c>
-      <c r="AK8" s="12">
+      <c r="AK8" s="7">
         <v>19688.045034366573</v>
       </c>
-      <c r="AL8" s="12">
+      <c r="AL8" s="7">
         <v>17631.703522412998</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
         <v>123286</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <v>200700</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="7">
         <v>290935</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="7">
         <v>390960.59424367809</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="7">
         <v>574570.64553175622</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="7">
         <v>649393.98049639468</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="7">
         <v>706862.7590673262</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="7">
         <v>745749.87555349118</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="7">
         <v>764633.61544331652</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="7">
         <v>790029</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="7">
         <v>816540</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="7">
         <v>850739</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="7">
         <v>868275</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="7">
         <v>901121</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="7">
         <v>923059</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="7">
         <v>942614.4731614145</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="7">
         <v>966034</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="7">
         <v>984020.25043148675</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="7">
         <v>1027163.7169339447</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="7">
         <v>1041051.4561548928</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="7">
         <v>1082490.4322099686</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="7">
         <v>586618.3997679333</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="7">
         <v>605456.44342129887</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA9" s="7">
         <v>617533.64280097629</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AB9" s="7">
         <v>622711.7533965027</v>
       </c>
-      <c r="AC9" s="12">
+      <c r="AC9" s="7">
         <v>604175.47333263187</v>
       </c>
-      <c r="AD9" s="12">
+      <c r="AD9" s="7">
         <v>601231.89921964507</v>
       </c>
-      <c r="AE9" s="12">
+      <c r="AE9" s="7">
         <v>603306.81647152919</v>
       </c>
-      <c r="AF9" s="12">
+      <c r="AF9" s="7">
         <v>638484.17390793725</v>
       </c>
-      <c r="AG9" s="12">
+      <c r="AG9" s="7">
         <v>631852.44473289989</v>
       </c>
-      <c r="AH9" s="12">
+      <c r="AH9" s="7">
         <v>657954.08127474412</v>
       </c>
-      <c r="AI9" s="12">
+      <c r="AI9" s="7">
         <v>656577.52670690406</v>
       </c>
-      <c r="AJ9" s="12">
+      <c r="AJ9" s="7">
         <v>664495.03125531948</v>
       </c>
-      <c r="AK9" s="12">
+      <c r="AK9" s="7">
         <v>669744.31520425412</v>
       </c>
-      <c r="AL9" s="12">
+      <c r="AL9" s="7">
         <v>672195.82600241108</v>
       </c>
     </row>
@@ -3517,115 +3436,115 @@
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="7">
         <v>98551.114792103239</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>128769.43824566413</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="7">
         <v>27081</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <v>34606</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="7">
         <v>39813</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <v>45441.010136293284</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="7">
         <v>51901.084690356343</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="7">
         <v>52897.92306227424</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="7">
         <v>53874.244545802358</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="7">
         <v>56772.473176373162</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="7">
         <v>61284</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="7">
         <v>62705</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="7">
         <v>64072</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="7">
         <v>66893</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="7">
         <v>68021</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="7">
         <v>70311</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="7">
         <v>70500</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="7">
         <v>72393.739800433483</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="7">
         <v>75866</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="7">
         <v>77748.270203057444</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="7">
         <v>78441.001270563196</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W10" s="7">
         <v>78495.659525951312</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="7">
         <v>80344.221164056842</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10" s="7">
         <v>119978.83837834008</v>
       </c>
-      <c r="Z10" s="12">
+      <c r="Z10" s="7">
         <v>126854.67714199767</v>
       </c>
-      <c r="AA10" s="12">
+      <c r="AA10" s="7">
         <v>120206.75691287633</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="AB10" s="7">
         <v>110738.2452064016</v>
       </c>
-      <c r="AC10" s="12">
+      <c r="AC10" s="7">
         <v>103803.03027298137</v>
       </c>
-      <c r="AD10" s="12">
+      <c r="AD10" s="7">
         <v>105605.2225970268</v>
       </c>
-      <c r="AE10" s="12">
+      <c r="AE10" s="7">
         <v>106581.57890487878</v>
       </c>
-      <c r="AF10" s="12">
+      <c r="AF10" s="7">
         <v>109301.40619692924</v>
       </c>
-      <c r="AG10" s="12">
+      <c r="AG10" s="7">
         <v>109597.31844960712</v>
       </c>
-      <c r="AH10" s="12">
+      <c r="AH10" s="7">
         <v>113337.94163267993</v>
       </c>
-      <c r="AI10" s="12">
+      <c r="AI10" s="7">
         <v>116102.39910916959</v>
       </c>
-      <c r="AJ10" s="12">
+      <c r="AJ10" s="7">
         <v>120698.99421461202</v>
       </c>
-      <c r="AK10" s="12">
+      <c r="AK10" s="7">
         <v>124745.70718075465</v>
       </c>
-      <c r="AL10" s="12">
+      <c r="AL10" s="7">
         <v>124879.63234527899</v>
       </c>
     </row>
@@ -3633,115 +3552,115 @@
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="7">
         <v>28853.538161131208</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>31665.00855212472</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="7">
         <v>35134</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="7">
         <v>46724</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="7">
         <v>68678</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="7">
         <v>78062.829299965597</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="7">
         <v>94341.074342318607</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="7">
         <v>96644.537280470293</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="7">
         <v>99509.826716672105</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="7">
         <v>103115.68968184128</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="7">
         <v>108932</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="7">
         <v>115451</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="7">
         <v>118899</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="7">
         <v>124584</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="7">
         <v>128359</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="7">
         <v>132386</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="7">
         <v>135020</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="7">
         <v>136533.9621231989</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="7">
         <v>138737</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="7">
         <v>140127.70843864867</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="7">
         <v>142369.77185656936</v>
       </c>
-      <c r="W11" s="12">
+      <c r="W11" s="7">
         <v>144027.63604132412</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="7">
         <v>142169.22730548185</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="7">
         <v>184199.09137989173</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11" s="7">
         <v>183825.72418631049</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA11" s="7">
         <v>168099.53433899098</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AB11" s="7">
         <v>175788.97173715092</v>
       </c>
-      <c r="AC11" s="12">
+      <c r="AC11" s="7">
         <v>163791.29311902044</v>
       </c>
-      <c r="AD11" s="12">
+      <c r="AD11" s="7">
         <v>163601.73110557569</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AE11" s="7">
         <v>168435.63414130086</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AF11" s="7">
         <v>169830.17838475661</v>
       </c>
-      <c r="AG11" s="12">
+      <c r="AG11" s="7">
         <v>170246.27799988686</v>
       </c>
-      <c r="AH11" s="12">
+      <c r="AH11" s="7">
         <v>174556.97827435564</v>
       </c>
-      <c r="AI11" s="12">
+      <c r="AI11" s="7">
         <v>181490.18169777928</v>
       </c>
-      <c r="AJ11" s="12">
+      <c r="AJ11" s="7">
         <v>184165.1211510069</v>
       </c>
-      <c r="AK11" s="12">
+      <c r="AK11" s="7">
         <v>175304.70135307586</v>
       </c>
-      <c r="AL11" s="12">
+      <c r="AL11" s="7">
         <v>177261.03530501798</v>
       </c>
     </row>
@@ -3749,115 +3668,115 @@
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="7">
         <v>4345.8175638756002</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>4681.1770760769577</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="7">
         <v>4544</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="7">
         <v>6055</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="7">
         <v>6059</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="7">
         <v>4477.6068789885057</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="7">
         <v>5726.3265627546771</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="7">
         <v>5750.2748281750091</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="7">
         <v>5778.0911089769943</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="7">
         <v>6125.0991479121494</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="7">
         <v>6409</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="7">
         <v>6419.9196593682</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="7">
         <v>6563.0978135055266</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="7">
         <v>6842</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="7">
         <v>7007</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="7">
         <v>7663</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="7">
         <v>7590</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="7">
         <v>7069.6535795571353</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="7">
         <v>6845</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="7">
         <v>6781.6303087130373</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="7">
         <v>6800.890953492647</v>
       </c>
-      <c r="W12" s="12">
+      <c r="W12" s="7">
         <v>6980.2913780328445</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X12" s="7">
         <v>6783.3176904100928</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y12" s="7">
         <v>14515.681427156009</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z12" s="7">
         <v>14823.457499626251</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AA12" s="7">
         <v>14387.471230913536</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AB12" s="7">
         <v>13769.530422622225</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AC12" s="7">
         <v>13807.345277818669</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AD12" s="7">
         <v>14781.002956070595</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AE12" s="7">
         <v>15166.915499718116</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF12" s="7">
         <v>15998.904217135092</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AG12" s="7">
         <v>16229.86813509899</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH12" s="7">
         <v>16349.513308120466</v>
       </c>
-      <c r="AI12" s="12">
+      <c r="AI12" s="7">
         <v>17227.368362223264</v>
       </c>
-      <c r="AJ12" s="12">
+      <c r="AJ12" s="7">
         <v>18303.400487589784</v>
       </c>
-      <c r="AK12" s="12">
+      <c r="AK12" s="7">
         <v>17979.988906833642</v>
       </c>
-      <c r="AL12" s="12">
+      <c r="AL12" s="7">
         <v>15103.847579231999</v>
       </c>
     </row>
@@ -3943,16 +3862,16 @@
       <c r="AA13" s="3">
         <v>4474.5522799999999</v>
       </c>
-      <c r="AB13" s="41">
+      <c r="AB13" s="3">
         <v>4133.5008530000005</v>
       </c>
-      <c r="AC13" s="41">
+      <c r="AC13" s="3">
         <v>4134.9197040000008</v>
       </c>
-      <c r="AD13" s="41">
+      <c r="AD13" s="3">
         <v>4184.564327</v>
       </c>
-      <c r="AE13" s="41">
+      <c r="AE13" s="3">
         <v>4069.3155470000002</v>
       </c>
       <c r="AF13" s="3">
@@ -3978,7 +3897,7 @@
       </c>
     </row>
     <row r="14" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="5">
@@ -4053,49 +3972,49 @@
       <c r="Y14" s="5">
         <v>2241.0641999999998</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z14" s="5">
         <v>2271.6938</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="5">
         <v>2285.1493829999999</v>
       </c>
-      <c r="AB14" s="42">
+      <c r="AB14" s="5">
         <v>1961.8275269999999</v>
       </c>
-      <c r="AC14" s="42">
+      <c r="AC14" s="5">
         <v>1864.5350860000001</v>
       </c>
-      <c r="AD14" s="42">
+      <c r="AD14" s="5">
         <v>1847.741499</v>
       </c>
-      <c r="AE14" s="42">
+      <c r="AE14" s="5">
         <v>1799.1594219999999</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="5">
         <v>2019.96994</v>
       </c>
-      <c r="AG14" s="12">
+      <c r="AG14" s="5">
         <v>2046.693399</v>
       </c>
-      <c r="AH14" s="12">
+      <c r="AH14" s="5">
         <v>2079.6512710000002</v>
       </c>
-      <c r="AI14" s="12">
+      <c r="AI14" s="5">
         <v>2096.6030850000002</v>
       </c>
-      <c r="AJ14" s="12">
+      <c r="AJ14" s="5">
         <v>2118.9392389999998</v>
       </c>
-      <c r="AK14" s="12">
+      <c r="AK14" s="5">
         <v>2141.3095800000001</v>
       </c>
-      <c r="AL14" s="12">
+      <c r="AL14" s="5">
         <v>1963.093329</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>64</v>
+      <c r="A15" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -4178,34 +4097,34 @@
       <c r="AB15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AC15" s="12">
+      <c r="AC15" s="5">
         <v>34.112428999999999</v>
       </c>
-      <c r="AD15" s="12">
+      <c r="AD15" s="5">
         <v>55.840547000000001</v>
       </c>
-      <c r="AE15" s="12">
+      <c r="AE15" s="5">
         <v>119.377951</v>
       </c>
-      <c r="AF15" s="12">
+      <c r="AF15" s="5">
         <v>161.55554100000001</v>
       </c>
-      <c r="AG15" s="12">
+      <c r="AG15" s="5">
         <v>158.482495</v>
       </c>
-      <c r="AH15" s="12">
+      <c r="AH15" s="5">
         <v>163.81388699999999</v>
       </c>
-      <c r="AI15" s="12">
+      <c r="AI15" s="5">
         <v>162.64483899999999</v>
       </c>
-      <c r="AJ15" s="12">
+      <c r="AJ15" s="5">
         <v>170.21292</v>
       </c>
-      <c r="AK15" s="12">
+      <c r="AK15" s="5">
         <v>167.044781</v>
       </c>
-      <c r="AL15" s="12">
+      <c r="AL15" s="5">
         <v>116.869799</v>
       </c>
     </row>
@@ -4285,43 +4204,43 @@
       <c r="Y16" s="5">
         <v>83.543800000000005</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="Z16" s="5">
         <v>87.586199999999991</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="5">
         <v>90.301124000000002</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AB16" s="5">
         <v>93.256452999999993</v>
       </c>
-      <c r="AC16" s="40">
+      <c r="AC16" s="5">
         <v>146.95600400000001</v>
       </c>
-      <c r="AD16" s="40">
+      <c r="AD16" s="5">
         <v>152.44495900000001</v>
       </c>
-      <c r="AE16" s="42">
+      <c r="AE16" s="5">
         <v>107.83679600000001</v>
       </c>
-      <c r="AF16" s="12">
+      <c r="AF16" s="5">
         <v>116.009739</v>
       </c>
-      <c r="AG16" s="12">
+      <c r="AG16" s="5">
         <v>120.02386799999999</v>
       </c>
-      <c r="AH16" s="12">
+      <c r="AH16" s="5">
         <v>123.526692</v>
       </c>
-      <c r="AI16" s="12">
+      <c r="AI16" s="5">
         <v>129.96661</v>
       </c>
-      <c r="AJ16" s="12">
+      <c r="AJ16" s="5">
         <v>130.955489</v>
       </c>
-      <c r="AK16" s="12">
+      <c r="AK16" s="5">
         <v>136.308164</v>
       </c>
-      <c r="AL16" s="12">
+      <c r="AL16" s="5">
         <v>119.50432600000001</v>
       </c>
     </row>
@@ -4401,43 +4320,43 @@
       <c r="Y17" s="5">
         <v>657.2761999999999</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="Z17" s="5">
         <v>674.26800000000003</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="5">
         <v>684.58174699999995</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17" s="5">
         <v>665.97647500000005</v>
       </c>
-      <c r="AC17" s="40">
+      <c r="AC17" s="5">
         <v>730.37782100000004</v>
       </c>
-      <c r="AD17" s="40">
+      <c r="AD17" s="5">
         <v>733.21976299999994</v>
       </c>
-      <c r="AE17" s="42">
+      <c r="AE17" s="5">
         <v>662.16134</v>
       </c>
-      <c r="AF17" s="12">
+      <c r="AF17" s="5">
         <v>676.18974200000002</v>
       </c>
-      <c r="AG17" s="12">
+      <c r="AG17" s="5">
         <v>695.47054200000002</v>
       </c>
-      <c r="AH17" s="12">
+      <c r="AH17" s="5">
         <v>696.36984600000005</v>
       </c>
-      <c r="AI17" s="12">
+      <c r="AI17" s="5">
         <v>703.58616900000004</v>
       </c>
-      <c r="AJ17" s="12">
+      <c r="AJ17" s="5">
         <v>705.15367100000003</v>
       </c>
-      <c r="AK17" s="12">
+      <c r="AK17" s="5">
         <v>718.50984100000005</v>
       </c>
-      <c r="AL17" s="12">
+      <c r="AL17" s="5">
         <v>662.89634000000001</v>
       </c>
     </row>
@@ -4517,43 +4436,43 @@
       <c r="Y18" s="5">
         <v>11.4299</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="Z18" s="5">
         <v>11.632700000000002</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="5">
         <v>13.147833</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18" s="5">
         <v>12.079473999999999</v>
       </c>
-      <c r="AC18" s="40">
+      <c r="AC18" s="5">
         <v>11.261146999999999</v>
       </c>
-      <c r="AD18" s="40">
+      <c r="AD18" s="5">
         <v>11.385631</v>
       </c>
-      <c r="AE18" s="42">
+      <c r="AE18" s="5">
         <v>11.377053</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="AF18" s="5">
         <v>11.392763</v>
       </c>
-      <c r="AG18" s="12">
+      <c r="AG18" s="5">
         <v>10.989075</v>
       </c>
-      <c r="AH18" s="12">
+      <c r="AH18" s="5">
         <v>11.771818</v>
       </c>
-      <c r="AI18" s="12">
+      <c r="AI18" s="5">
         <v>11.245654999999999</v>
       </c>
-      <c r="AJ18" s="12">
+      <c r="AJ18" s="5">
         <v>11.038069999999999</v>
       </c>
-      <c r="AK18" s="12">
+      <c r="AK18" s="5">
         <v>10.289835999999999</v>
       </c>
-      <c r="AL18" s="12">
+      <c r="AL18" s="5">
         <v>9.4787820000000007</v>
       </c>
     </row>
@@ -4633,48 +4552,48 @@
       <c r="Y19" s="5">
         <v>325.08610000000004</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="5">
         <v>337.44069999999999</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="5">
         <v>337.36591299999998</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="5">
         <v>342.09286900000001</v>
       </c>
-      <c r="AC19" s="40">
+      <c r="AC19" s="5">
         <v>365.86428100000001</v>
       </c>
-      <c r="AD19" s="40">
+      <c r="AD19" s="5">
         <v>372.68043399999999</v>
       </c>
-      <c r="AE19" s="42">
+      <c r="AE19" s="5">
         <v>330.31195600000001</v>
       </c>
-      <c r="AF19" s="12">
+      <c r="AF19" s="5">
         <v>366.536068</v>
       </c>
-      <c r="AG19" s="12">
+      <c r="AG19" s="5">
         <v>369.45944300000002</v>
       </c>
-      <c r="AH19" s="12">
+      <c r="AH19" s="5">
         <v>371.67725000000002</v>
       </c>
-      <c r="AI19" s="12">
+      <c r="AI19" s="5">
         <v>373.91618499999998</v>
       </c>
-      <c r="AJ19" s="12">
+      <c r="AJ19" s="5">
         <v>375.39806399999998</v>
       </c>
-      <c r="AK19" s="12">
+      <c r="AK19" s="5">
         <v>377.34416399999998</v>
       </c>
-      <c r="AL19" s="12">
+      <c r="AL19" s="5">
         <v>313.52263299999998</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -4749,43 +4668,43 @@
       <c r="Y20" s="5">
         <v>752.43640000000005</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z20" s="5">
         <v>802.56240000000003</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="5">
         <v>846.96034699999996</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20" s="5">
         <v>807.08798999999999</v>
       </c>
-      <c r="AC20" s="40">
+      <c r="AC20" s="5">
         <v>715.41990199999998</v>
       </c>
-      <c r="AD20" s="40">
+      <c r="AD20" s="5">
         <v>730.36338699999999</v>
       </c>
-      <c r="AE20" s="42">
+      <c r="AE20" s="5">
         <v>749.37227099999996</v>
       </c>
-      <c r="AF20" s="12">
+      <c r="AF20" s="5">
         <v>824.47880899999996</v>
       </c>
-      <c r="AG20" s="12">
+      <c r="AG20" s="5">
         <v>842.03005599999995</v>
       </c>
-      <c r="AH20" s="12">
+      <c r="AH20" s="5">
         <v>838.24480900000003</v>
       </c>
-      <c r="AI20" s="12">
+      <c r="AI20" s="5">
         <v>842.70380999999998</v>
       </c>
-      <c r="AJ20" s="12">
+      <c r="AJ20" s="5">
         <v>836.27266999999995</v>
       </c>
-      <c r="AK20" s="12">
+      <c r="AK20" s="5">
         <v>831.11309300000005</v>
       </c>
-      <c r="AL20" s="12">
+      <c r="AL20" s="5">
         <v>656.64481499999999</v>
       </c>
     </row>
@@ -4805,10 +4724,10 @@
       <c r="E21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="5">
@@ -4865,43 +4784,43 @@
       <c r="Y21" s="5">
         <v>3.4319999999999999</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="Z21" s="5">
         <v>3.4140999999999999</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AA21" s="5">
         <v>3.3829259999999999</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AB21" s="5">
         <v>3.2993749999999999</v>
       </c>
-      <c r="AC21" s="6">
+      <c r="AC21" s="5">
         <v>3.2693620000000001</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AD21" s="5">
         <v>3.233606</v>
       </c>
-      <c r="AE21" s="12">
+      <c r="AE21" s="5">
         <v>3.307801</v>
       </c>
-      <c r="AF21" s="12">
+      <c r="AF21" s="5">
         <v>3.3140520000000002</v>
       </c>
-      <c r="AG21" s="12">
+      <c r="AG21" s="5">
         <v>3.6776900000000001</v>
       </c>
-      <c r="AH21" s="12">
+      <c r="AH21" s="5">
         <v>3.7752370000000002</v>
       </c>
-      <c r="AI21" s="12">
+      <c r="AI21" s="5">
         <v>3.864052</v>
       </c>
-      <c r="AJ21" s="12">
+      <c r="AJ21" s="5">
         <v>4.717962</v>
       </c>
-      <c r="AK21" s="12">
+      <c r="AK21" s="5">
         <v>5.0868000000000002</v>
       </c>
-      <c r="AL21" s="12">
+      <c r="AL21" s="5">
         <v>4.3214839999999999</v>
       </c>
     </row>
@@ -4981,43 +4900,43 @@
       <c r="Y22" s="5">
         <v>163.46890000000076</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="Z22" s="5">
         <v>186.60829999999987</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="5">
         <v>213.66300699999999</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AB22" s="5">
         <v>247.88068999999999</v>
       </c>
-      <c r="AC22" s="40">
+      <c r="AC22" s="5">
         <v>263.123672</v>
       </c>
-      <c r="AD22" s="40">
+      <c r="AD22" s="5">
         <v>277.65450099999998</v>
       </c>
-      <c r="AE22" s="42">
+      <c r="AE22" s="5">
         <v>286.410957</v>
       </c>
-      <c r="AF22" s="12">
+      <c r="AF22" s="5">
         <v>249.63676899999999</v>
       </c>
-      <c r="AG22" s="12">
+      <c r="AG22" s="5">
         <v>248.48702</v>
       </c>
-      <c r="AH22" s="12">
+      <c r="AH22" s="5">
         <v>256.17675300000002</v>
       </c>
-      <c r="AI22" s="12">
+      <c r="AI22" s="5">
         <v>249.707356</v>
       </c>
-      <c r="AJ22" s="12">
+      <c r="AJ22" s="5">
         <v>239.249334</v>
       </c>
-      <c r="AK22" s="12">
+      <c r="AK22" s="5">
         <v>242.15475599999999</v>
       </c>
-      <c r="AL22" s="12">
+      <c r="AL22" s="5">
         <v>182.77094299999999</v>
       </c>
     </row>
@@ -5037,31 +4956,31 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
     </row>
     <row r="24" spans="1:38" ht="16.5" customHeight="1">
       <c r="A24" s="4" t="s">
@@ -5112,71 +5031,71 @@
       <c r="P24" s="5">
         <v>474.947</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="5">
         <v>490.44200000000001</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="5">
         <v>504.00099999999998</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="5">
         <v>499.54599999999999</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="5">
         <v>499.66800000000001</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="5">
         <v>515.99900000000002</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24" s="5">
         <v>534.69600000000003</v>
       </c>
-      <c r="W24" s="6">
+      <c r="W24" s="5">
         <v>547.56600000000003</v>
       </c>
-      <c r="X24" s="12">
+      <c r="X24" s="5">
         <v>562.60699999999997</v>
       </c>
-      <c r="Y24" s="12">
+      <c r="Y24" s="5">
         <v>543.47500000000002</v>
       </c>
-      <c r="Z24" s="12">
+      <c r="Z24" s="5">
         <v>524.22299999999996</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AA24" s="5">
         <v>436.23500000000001</v>
       </c>
-      <c r="AB24" s="6">
+      <c r="AB24" s="5">
         <v>475.90600000000001</v>
       </c>
-      <c r="AC24" s="6">
+      <c r="AC24" s="5">
         <v>493.31099999999998</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AD24" s="5">
         <v>500.14800000000002</v>
       </c>
-      <c r="AE24" s="6">
+      <c r="AE24" s="5">
         <v>503.98399999999998</v>
       </c>
-      <c r="AF24" s="6">
+      <c r="AF24" s="5">
         <v>518.16700000000003</v>
       </c>
-      <c r="AG24" s="12">
+      <c r="AG24" s="5">
         <v>494.59</v>
       </c>
-      <c r="AH24" s="12">
+      <c r="AH24" s="5">
         <v>452.846</v>
       </c>
-      <c r="AI24" s="12">
+      <c r="AI24" s="5">
         <v>465.25200000000001</v>
       </c>
-      <c r="AJ24" s="12">
+      <c r="AJ24" s="5">
         <v>476.52199999999999</v>
       </c>
-      <c r="AK24" s="12">
+      <c r="AK24" s="5">
         <v>444.61</v>
       </c>
-      <c r="AL24" s="12" t="s">
-        <v>1</v>
+      <c r="AL24" s="5">
+        <v>380.88499999999999</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="16.5" customHeight="1">
@@ -5228,75 +5147,75 @@
       <c r="P25" s="5">
         <v>32657</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <v>33851</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="5">
         <v>34590</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="5">
         <v>34243</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="5">
         <v>34680</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="5">
         <v>35555</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="5">
         <v>37071</v>
       </c>
-      <c r="W25" s="6">
+      <c r="W25" s="5">
         <v>37712</v>
       </c>
-      <c r="X25" s="12">
+      <c r="X25" s="5">
         <v>38955</v>
       </c>
-      <c r="Y25" s="12">
+      <c r="Y25" s="5">
         <v>38186</v>
       </c>
-      <c r="Z25" s="12">
+      <c r="Z25" s="5">
         <v>37226</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AA25" s="5">
         <v>32115</v>
       </c>
-      <c r="AB25" s="6">
+      <c r="AB25" s="5">
         <v>35541</v>
       </c>
-      <c r="AC25" s="6">
+      <c r="AC25" s="5">
         <v>36649</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AD25" s="5">
         <v>36525</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AE25" s="5">
         <v>35253</v>
       </c>
-      <c r="AF25" s="6">
+      <c r="AF25" s="5">
         <v>37193</v>
       </c>
-      <c r="AG25" s="12">
+      <c r="AG25" s="5">
         <v>35853</v>
       </c>
-      <c r="AH25" s="12">
+      <c r="AH25" s="5">
         <v>32572</v>
       </c>
-      <c r="AI25" s="12">
+      <c r="AI25" s="5">
         <v>34065</v>
       </c>
-      <c r="AJ25" s="12">
+      <c r="AJ25" s="5">
         <v>35018</v>
       </c>
-      <c r="AK25" s="12">
+      <c r="AK25" s="5">
         <v>33242</v>
       </c>
-      <c r="AL25" s="12" t="s">
-        <v>1</v>
+      <c r="AL25" s="5">
+        <v>29364</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="5">
@@ -5344,75 +5263,75 @@
       <c r="P26" s="5">
         <v>33</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="5">
         <v>34</v>
       </c>
       <c r="R26" s="5">
         <v>35</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="5">
         <v>36</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="5">
         <v>37.624215</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="5">
         <v>37.459214000000003</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="5">
         <v>37.158630000000002</v>
       </c>
-      <c r="W26" s="6">
+      <c r="W26" s="5">
         <v>36.198799999999999</v>
       </c>
-      <c r="X26" s="12">
+      <c r="X26" s="5">
         <v>36.083010999999999</v>
       </c>
-      <c r="Y26" s="12">
+      <c r="Y26" s="5">
         <v>37.483665999999999</v>
       </c>
-      <c r="Z26" s="12">
+      <c r="Z26" s="5">
         <v>37.735999999999997</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AA26" s="5">
         <v>38.299999999999997</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AB26" s="5">
         <v>37.453000000000003</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AC26" s="5">
         <v>37.090000000000003</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AD26" s="5">
         <v>37.64</v>
       </c>
-      <c r="AE26" s="12">
+      <c r="AE26" s="5">
         <v>38.409999999999997</v>
       </c>
-      <c r="AF26" s="12">
+      <c r="AF26" s="5">
         <v>38.012999999999998</v>
       </c>
-      <c r="AG26" s="12">
+      <c r="AG26" s="5">
         <v>37.798127000000001</v>
       </c>
-      <c r="AH26" s="12">
+      <c r="AH26" s="5">
         <v>37.808</v>
       </c>
-      <c r="AI26" s="12">
+      <c r="AI26" s="5">
         <v>37.859000000000002</v>
       </c>
-      <c r="AJ26" s="12">
+      <c r="AJ26" s="5">
         <v>37.825000000000003</v>
       </c>
-      <c r="AK26" s="12">
+      <c r="AK26" s="5">
         <v>38.204999999999998</v>
       </c>
-      <c r="AL26" s="12" t="s">
-        <v>1</v>
+      <c r="AL26" s="5">
+        <v>26.867000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="5">
@@ -5460,352 +5379,352 @@
       <c r="P27" s="5">
         <v>312</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="5">
         <v>342</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R27" s="5">
         <v>368</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="5">
         <v>378</v>
       </c>
-      <c r="T27" s="12">
+      <c r="T27" s="5">
         <v>378.54229099999998</v>
       </c>
-      <c r="U27" s="12">
+      <c r="U27" s="5">
         <v>331.86369999999999</v>
       </c>
-      <c r="V27" s="6">
+      <c r="V27" s="5">
         <v>308.43726900000001</v>
       </c>
-      <c r="W27" s="6">
+      <c r="W27" s="5">
         <v>264.79555699999997</v>
       </c>
-      <c r="X27" s="12">
+      <c r="X27" s="5">
         <v>263.90816699999999</v>
       </c>
-      <c r="Y27" s="12">
+      <c r="Y27" s="5">
         <v>266.54528599999998</v>
       </c>
-      <c r="Z27" s="12">
+      <c r="Z27" s="5">
         <v>271.762</v>
       </c>
-      <c r="AA27" s="6">
+      <c r="AA27" s="5">
         <v>282.76400000000001</v>
       </c>
-      <c r="AB27" s="6">
+      <c r="AB27" s="5">
         <v>294.82</v>
       </c>
-      <c r="AC27" s="6">
+      <c r="AC27" s="5">
         <v>296.315</v>
       </c>
-      <c r="AD27" s="6">
+      <c r="AD27" s="5">
         <v>319.08800000000002</v>
       </c>
-      <c r="AE27" s="12">
+      <c r="AE27" s="5">
         <v>324.94900000000001</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AF27" s="5">
         <v>324.68299999999999</v>
       </c>
-      <c r="AG27" s="12">
+      <c r="AG27" s="5">
         <v>319.46379400000001</v>
       </c>
-      <c r="AH27" s="12">
+      <c r="AH27" s="5">
         <v>316.38400000000001</v>
       </c>
-      <c r="AI27" s="12">
+      <c r="AI27" s="5">
         <v>316.14800000000002</v>
       </c>
-      <c r="AJ27" s="12">
+      <c r="AJ27" s="5">
         <v>272.54000000000002</v>
       </c>
-      <c r="AK27" s="12">
+      <c r="AK27" s="5">
         <v>278.88900000000001</v>
       </c>
-      <c r="AL27" s="12" t="s">
-        <v>1</v>
+      <c r="AL27" s="5">
+        <v>184.68</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="9">
         <v>613.46399999999994</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="9">
         <v>592.96199999999999</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="9">
         <v>520.06500000000005</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="9">
         <v>432.55700000000002</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="9">
         <v>458.49799999999999</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="9">
         <v>377.29199999999997</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="9">
         <v>412.58199999999999</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="9">
         <v>408.97399999999999</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="9">
         <v>424.24099999999999</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="9">
         <v>440.44600000000003</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="9">
         <v>474.89600000000002</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="9">
         <v>490.27100000000002</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="9">
         <v>498.79199999999997</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="9">
         <v>506.95400000000001</v>
       </c>
-      <c r="P28" s="15">
+      <c r="P28" s="9">
         <v>507.947</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="9">
         <v>524.44200000000001</v>
       </c>
-      <c r="R28" s="15">
+      <c r="R28" s="9">
         <v>539.00099999999998</v>
       </c>
-      <c r="S28" s="15">
+      <c r="S28" s="9">
         <v>535.54600000000005</v>
       </c>
-      <c r="T28" s="15">
+      <c r="T28" s="9">
         <v>537.29221500000006</v>
       </c>
-      <c r="U28" s="15">
+      <c r="U28" s="9">
         <v>553.458214</v>
       </c>
-      <c r="V28" s="15">
+      <c r="V28" s="9">
         <v>571.85463000000004</v>
       </c>
-      <c r="W28" s="15">
+      <c r="W28" s="9">
         <v>583.76480000000004</v>
       </c>
-      <c r="X28" s="15">
+      <c r="X28" s="9">
         <v>598.69001099999991</v>
       </c>
-      <c r="Y28" s="15">
+      <c r="Y28" s="9">
         <v>580.95866599999999</v>
       </c>
-      <c r="Z28" s="15">
+      <c r="Z28" s="9">
         <v>561.95899999999995</v>
       </c>
-      <c r="AA28" s="15">
+      <c r="AA28" s="9">
         <v>474.53500000000003</v>
       </c>
-      <c r="AB28" s="15">
+      <c r="AB28" s="9">
         <v>513.35900000000004</v>
       </c>
-      <c r="AC28" s="15">
+      <c r="AC28" s="9">
         <v>530.40099999999995</v>
       </c>
-      <c r="AD28" s="15">
+      <c r="AD28" s="9">
         <v>537.78800000000001</v>
       </c>
-      <c r="AE28" s="15">
+      <c r="AE28" s="9">
         <v>542.39400000000001</v>
       </c>
-      <c r="AF28" s="15">
+      <c r="AF28" s="9">
         <v>556.18000000000006</v>
       </c>
-      <c r="AG28" s="15">
+      <c r="AG28" s="9">
         <v>532.38812699999994</v>
       </c>
-      <c r="AH28" s="15">
+      <c r="AH28" s="9">
         <v>490.654</v>
       </c>
-      <c r="AI28" s="15">
+      <c r="AI28" s="9">
         <v>503.11099999999999</v>
       </c>
-      <c r="AJ28" s="15">
+      <c r="AJ28" s="9">
         <v>514.34699999999998</v>
       </c>
-      <c r="AK28" s="15">
+      <c r="AK28" s="9">
         <v>482.815</v>
       </c>
-      <c r="AL28" s="15" t="s">
-        <v>1</v>
+      <c r="AL28" s="9">
+        <v>407.75200000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
-      <c r="A29" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
+    <row r="29" spans="1:38" ht="12.75" customHeight="1">
+      <c r="A29" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
     </row>
-    <row r="30" spans="1:38">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="22"/>
-      <c r="AH30" s="22"/>
-      <c r="AI30" s="22"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="22"/>
+    <row r="30" spans="1:38" ht="12.75" customHeight="1">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
     </row>
-    <row r="31" spans="1:38" ht="13.5">
-      <c r="A31" s="29" t="s">
+    <row r="31" spans="1:38" ht="12.75" customHeight="1">
+      <c r="A31" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="22"/>
-      <c r="AI31" s="22"/>
-      <c r="AJ31" s="22"/>
-      <c r="AK31" s="22"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
     </row>
     <row r="32" spans="1:38" ht="38.25" customHeight="1">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="22"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
     </row>
-    <row r="33" spans="1:37" ht="13.5">
+    <row r="33" spans="1:37" ht="12.75" customHeight="1">
       <c r="A33" s="26" t="s">
         <v>35</v>
       </c>
@@ -5830,25 +5749,25 @@
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
       <c r="V33" s="26"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="22"/>
-      <c r="AH33" s="22"/>
-      <c r="AI33" s="22"/>
-      <c r="AJ33" s="22"/>
-      <c r="AK33" s="22"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
     </row>
-    <row r="34" spans="1:37" ht="13.5">
+    <row r="34" spans="1:37" ht="12.75" customHeight="1">
       <c r="A34" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -5871,64 +5790,64 @@
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
       <c r="V34" s="26"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="22"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
     </row>
-    <row r="35" spans="1:37" ht="27" customHeight="1">
-      <c r="A35" s="31" t="s">
+    <row r="35" spans="1:37" ht="25.5" customHeight="1">
+      <c r="A35" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
     </row>
-    <row r="36" spans="1:37" ht="13.5">
+    <row r="36" spans="1:37" ht="12.75" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>46</v>
       </c>
@@ -5953,23 +5872,23 @@
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
       <c r="V36" s="26"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="22"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
     </row>
-    <row r="37" spans="1:37" ht="13.5">
+    <row r="37" spans="1:37" ht="12.75" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>47</v>
       </c>
@@ -5994,25 +5913,25 @@
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
       <c r="V37" s="26"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="22"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="15"/>
     </row>
-    <row r="38" spans="1:37" ht="13.5">
+    <row r="38" spans="1:37" ht="12.75" customHeight="1">
       <c r="A38" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
@@ -6035,23 +5954,23 @@
       <c r="T38" s="26"/>
       <c r="U38" s="26"/>
       <c r="V38" s="26"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="22"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="15"/>
     </row>
-    <row r="39" spans="1:37" ht="13.5">
+    <row r="39" spans="1:37" ht="12.75" customHeight="1">
       <c r="A39" s="26" t="s">
         <v>48</v>
       </c>
@@ -6076,1556 +5995,1555 @@
       <c r="T39" s="26"/>
       <c r="U39" s="26"/>
       <c r="V39" s="26"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
-      <c r="AG39" s="22"/>
-      <c r="AH39" s="22"/>
-      <c r="AI39" s="22"/>
-      <c r="AJ39" s="22"/>
-      <c r="AK39" s="22"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
     </row>
-    <row r="40" spans="1:37" ht="27" customHeight="1">
-      <c r="A40" s="31" t="s">
+    <row r="40" spans="1:37" ht="25.5" customHeight="1">
+      <c r="A40" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="16"/>
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="16"/>
-      <c r="AG40" s="16"/>
-      <c r="AH40" s="16"/>
-      <c r="AI40" s="16"/>
-      <c r="AJ40" s="16"/>
-      <c r="AK40" s="16"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
     </row>
-    <row r="41" spans="1:37" ht="13.5">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="16"/>
-      <c r="AI41" s="16"/>
-      <c r="AJ41" s="16"/>
-      <c r="AK41" s="16"/>
+    <row r="41" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
     </row>
-    <row r="42" spans="1:37">
-      <c r="A42" s="33" t="s">
+    <row r="42" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A42" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="22"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="22"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="22"/>
-      <c r="AJ42" s="22"/>
-      <c r="AK42" s="22"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="15"/>
     </row>
-    <row r="43" spans="1:37">
-      <c r="A43" s="34" t="s">
+    <row r="43" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A43" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="22"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="22"/>
-      <c r="AJ43" s="22"/>
-      <c r="AK43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="15"/>
+      <c r="AJ43" s="15"/>
+      <c r="AK43" s="15"/>
     </row>
-    <row r="44" spans="1:37">
-      <c r="A44" s="35" t="s">
+    <row r="44" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A44" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
-      <c r="AK44" s="22"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="15"/>
     </row>
-    <row r="45" spans="1:37">
-      <c r="A45" s="32" t="s">
+    <row r="45" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A45" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
-      <c r="AG45" s="22"/>
-      <c r="AH45" s="22"/>
-      <c r="AI45" s="22"/>
-      <c r="AJ45" s="22"/>
-      <c r="AK45" s="22"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+      <c r="AH45" s="15"/>
+      <c r="AI45" s="15"/>
+      <c r="AJ45" s="15"/>
+      <c r="AK45" s="15"/>
     </row>
-    <row r="46" spans="1:37">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="22"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="22"/>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="22"/>
-      <c r="AG46" s="22"/>
-      <c r="AH46" s="22"/>
-      <c r="AI46" s="22"/>
-      <c r="AJ46" s="22"/>
-      <c r="AK46" s="22"/>
+    <row r="46" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
     </row>
-    <row r="47" spans="1:37">
-      <c r="A47" s="36" t="s">
+    <row r="47" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A47" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="15"/>
+      <c r="AK47" s="15"/>
     </row>
-    <row r="48" spans="1:37">
-      <c r="A48" s="36" t="s">
+    <row r="48" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A48" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="22"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+      <c r="AK48" s="15"/>
     </row>
-    <row r="49" spans="1:37">
-      <c r="A49" s="37" t="s">
+    <row r="49" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A49" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="22"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="15"/>
+      <c r="AH49" s="15"/>
+      <c r="AI49" s="15"/>
+      <c r="AJ49" s="15"/>
+      <c r="AK49" s="15"/>
     </row>
-    <row r="50" spans="1:37">
-      <c r="A50" s="32" t="s">
+    <row r="50" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A50" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="22"/>
-      <c r="AJ50" s="22"/>
-      <c r="AK50" s="22"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="15"/>
+      <c r="AH50" s="15"/>
+      <c r="AI50" s="15"/>
+      <c r="AJ50" s="15"/>
+      <c r="AK50" s="15"/>
     </row>
-    <row r="51" spans="1:37">
-      <c r="A51" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="24"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
-      <c r="AJ51" s="24"/>
-      <c r="AK51" s="24"/>
+    <row r="51" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A51" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="17"/>
+      <c r="AH51" s="17"/>
+      <c r="AI51" s="17"/>
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
     </row>
     <row r="52" spans="1:37" ht="25.5" customHeight="1">
-      <c r="A52" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="22"/>
-      <c r="AI52" s="22"/>
-      <c r="AJ52" s="22"/>
-      <c r="AK52" s="22"/>
+      <c r="A52" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15"/>
+      <c r="AH52" s="15"/>
+      <c r="AI52" s="15"/>
+      <c r="AJ52" s="15"/>
+      <c r="AK52" s="15"/>
     </row>
-    <row r="53" spans="1:37">
-      <c r="A53" s="37" t="s">
+    <row r="53" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A53" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="22"/>
-      <c r="AE53" s="22"/>
-      <c r="AF53" s="22"/>
-      <c r="AG53" s="22"/>
-      <c r="AH53" s="22"/>
-      <c r="AI53" s="22"/>
-      <c r="AJ53" s="22"/>
-      <c r="AK53" s="22"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="15"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="15"/>
+      <c r="AH53" s="15"/>
+      <c r="AI53" s="15"/>
+      <c r="AJ53" s="15"/>
+      <c r="AK53" s="15"/>
     </row>
-    <row r="54" spans="1:37">
-      <c r="A54" s="32" t="s">
+    <row r="54" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A54" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
-      <c r="V54" s="32"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="22"/>
-      <c r="AB54" s="22"/>
-      <c r="AC54" s="22"/>
-      <c r="AD54" s="22"/>
-      <c r="AE54" s="22"/>
-      <c r="AF54" s="22"/>
-      <c r="AG54" s="22"/>
-      <c r="AH54" s="22"/>
-      <c r="AI54" s="22"/>
-      <c r="AJ54" s="22"/>
-      <c r="AK54" s="22"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="15"/>
+      <c r="AH54" s="15"/>
+      <c r="AI54" s="15"/>
+      <c r="AJ54" s="15"/>
+      <c r="AK54" s="15"/>
     </row>
-    <row r="55" spans="1:37">
-      <c r="A55" s="32" t="s">
+    <row r="55" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A55" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="15"/>
+      <c r="AH55" s="15"/>
+      <c r="AI55" s="15"/>
+      <c r="AJ55" s="15"/>
+      <c r="AK55" s="15"/>
+    </row>
+    <row r="56" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A56" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="15"/>
+      <c r="AH56" s="15"/>
+      <c r="AI56" s="15"/>
+      <c r="AJ56" s="15"/>
+      <c r="AK56" s="15"/>
+    </row>
+    <row r="57" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A57" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="16"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="22"/>
-      <c r="AE55" s="22"/>
-      <c r="AF55" s="22"/>
-      <c r="AG55" s="22"/>
-      <c r="AH55" s="22"/>
-      <c r="AI55" s="22"/>
-      <c r="AJ55" s="22"/>
-      <c r="AK55" s="22"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="15"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="15"/>
+      <c r="AH57" s="15"/>
+      <c r="AI57" s="15"/>
+      <c r="AJ57" s="15"/>
+      <c r="AK57" s="15"/>
     </row>
-    <row r="56" spans="1:37">
-      <c r="A56" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="22"/>
-      <c r="AJ56" s="22"/>
-      <c r="AK56" s="22"/>
+    <row r="58" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A58" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="15"/>
+      <c r="AF58" s="15"/>
+      <c r="AG58" s="15"/>
+      <c r="AH58" s="15"/>
+      <c r="AI58" s="15"/>
+      <c r="AJ58" s="15"/>
+      <c r="AK58" s="15"/>
     </row>
-    <row r="57" spans="1:37">
-      <c r="A57" s="32" t="s">
+    <row r="59" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A59" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="15"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="15"/>
+      <c r="AH59" s="15"/>
+      <c r="AI59" s="15"/>
+      <c r="AJ59" s="15"/>
+      <c r="AK59" s="15"/>
+    </row>
+    <row r="60" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A60" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="23"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="15"/>
+      <c r="Z60" s="15"/>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="15"/>
+      <c r="AC60" s="15"/>
+      <c r="AD60" s="15"/>
+      <c r="AE60" s="15"/>
+      <c r="AF60" s="15"/>
+      <c r="AG60" s="15"/>
+      <c r="AH60" s="15"/>
+      <c r="AI60" s="15"/>
+      <c r="AJ60" s="15"/>
+      <c r="AK60" s="15"/>
+    </row>
+    <row r="61" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A61" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="15"/>
+      <c r="AE61" s="15"/>
+      <c r="AF61" s="15"/>
+      <c r="AG61" s="15"/>
+      <c r="AH61" s="15"/>
+      <c r="AI61" s="15"/>
+      <c r="AJ61" s="15"/>
+      <c r="AK61" s="15"/>
+    </row>
+    <row r="62" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A62" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="15"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="15"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="15"/>
+      <c r="AH62" s="15"/>
+      <c r="AI62" s="15"/>
+      <c r="AJ62" s="15"/>
+      <c r="AK62" s="15"/>
+    </row>
+    <row r="63" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A63" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="15"/>
+      <c r="AC63" s="15"/>
+      <c r="AD63" s="15"/>
+      <c r="AE63" s="15"/>
+      <c r="AF63" s="15"/>
+      <c r="AG63" s="15"/>
+      <c r="AH63" s="15"/>
+      <c r="AI63" s="15"/>
+      <c r="AJ63" s="15"/>
+      <c r="AK63" s="15"/>
+    </row>
+    <row r="64" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A64" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="15"/>
+      <c r="AH64" s="15"/>
+      <c r="AI64" s="15"/>
+      <c r="AJ64" s="15"/>
+      <c r="AK64" s="15"/>
+    </row>
+    <row r="65" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A65" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="15"/>
+      <c r="AH65" s="15"/>
+      <c r="AI65" s="15"/>
+      <c r="AJ65" s="15"/>
+      <c r="AK65" s="15"/>
+    </row>
+    <row r="66" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A66" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="15"/>
+      <c r="AG66" s="15"/>
+      <c r="AH66" s="15"/>
+      <c r="AI66" s="15"/>
+      <c r="AJ66" s="15"/>
+      <c r="AK66" s="15"/>
+    </row>
+    <row r="67" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A67" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="15"/>
+      <c r="AH67" s="15"/>
+      <c r="AI67" s="15"/>
+      <c r="AJ67" s="15"/>
+      <c r="AK67" s="15"/>
+    </row>
+    <row r="68" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A68" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="15"/>
+      <c r="AH68" s="15"/>
+      <c r="AI68" s="15"/>
+      <c r="AJ68" s="15"/>
+      <c r="AK68" s="15"/>
+    </row>
+    <row r="69" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A69" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="15"/>
+      <c r="AH69" s="15"/>
+      <c r="AI69" s="15"/>
+      <c r="AJ69" s="15"/>
+      <c r="AK69" s="15"/>
+    </row>
+    <row r="70" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A70" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="15"/>
+      <c r="AG70" s="15"/>
+      <c r="AH70" s="15"/>
+      <c r="AI70" s="15"/>
+      <c r="AJ70" s="15"/>
+      <c r="AK70" s="15"/>
+    </row>
+    <row r="71" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A71" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="32"/>
-      <c r="V57" s="32"/>
-      <c r="W57" s="16"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="22"/>
-      <c r="AC57" s="22"/>
-      <c r="AD57" s="22"/>
-      <c r="AE57" s="22"/>
-      <c r="AF57" s="22"/>
-      <c r="AG57" s="22"/>
-      <c r="AH57" s="22"/>
-      <c r="AI57" s="22"/>
-      <c r="AJ57" s="22"/>
-      <c r="AK57" s="22"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="15"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="15"/>
+      <c r="AH71" s="15"/>
+      <c r="AI71" s="15"/>
+      <c r="AJ71" s="15"/>
+      <c r="AK71" s="15"/>
     </row>
-    <row r="58" spans="1:37">
-      <c r="A58" s="32" t="s">
+    <row r="72" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A72" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
+      <c r="Z72" s="15"/>
+      <c r="AA72" s="15"/>
+      <c r="AB72" s="15"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="15"/>
+      <c r="AH72" s="15"/>
+      <c r="AI72" s="15"/>
+      <c r="AJ72" s="15"/>
+      <c r="AK72" s="15"/>
+    </row>
+    <row r="73" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A73" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
+      <c r="AJ73" s="15"/>
+      <c r="AK73" s="15"/>
+    </row>
+    <row r="74" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A74" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="15"/>
+      <c r="AH74" s="15"/>
+      <c r="AI74" s="15"/>
+      <c r="AJ74" s="15"/>
+      <c r="AK74" s="15"/>
+    </row>
+    <row r="75" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A75" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="32"/>
-      <c r="V58" s="32"/>
-      <c r="W58" s="16"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="22"/>
-      <c r="AE58" s="22"/>
-      <c r="AF58" s="22"/>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="22"/>
-      <c r="AI58" s="22"/>
-      <c r="AJ58" s="22"/>
-      <c r="AK58" s="22"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="15"/>
+      <c r="AA75" s="15"/>
+      <c r="AB75" s="15"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
+      <c r="AE75" s="15"/>
+      <c r="AF75" s="15"/>
+      <c r="AG75" s="15"/>
+      <c r="AH75" s="15"/>
+      <c r="AI75" s="15"/>
+      <c r="AJ75" s="15"/>
+      <c r="AK75" s="15"/>
     </row>
-    <row r="59" spans="1:37">
-      <c r="A59" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="16"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22"/>
-      <c r="AI59" s="22"/>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="22"/>
-    </row>
-    <row r="60" spans="1:37">
-      <c r="A60" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="16"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22"/>
-      <c r="AC60" s="22"/>
-      <c r="AD60" s="22"/>
-      <c r="AE60" s="22"/>
-      <c r="AF60" s="22"/>
-      <c r="AG60" s="22"/>
-      <c r="AH60" s="22"/>
-      <c r="AI60" s="22"/>
-      <c r="AJ60" s="22"/>
-      <c r="AK60" s="22"/>
-    </row>
-    <row r="61" spans="1:37">
-      <c r="A61" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="32"/>
-      <c r="U61" s="32"/>
-      <c r="V61" s="32"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-    </row>
-    <row r="62" spans="1:37">
-      <c r="A62" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="22"/>
-      <c r="AA62" s="22"/>
-      <c r="AB62" s="22"/>
-      <c r="AC62" s="22"/>
-      <c r="AD62" s="22"/>
-      <c r="AE62" s="22"/>
-      <c r="AF62" s="22"/>
-      <c r="AG62" s="22"/>
-      <c r="AH62" s="22"/>
-      <c r="AI62" s="22"/>
-      <c r="AJ62" s="22"/>
-      <c r="AK62" s="22"/>
-    </row>
-    <row r="63" spans="1:37">
-      <c r="A63" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="22"/>
-      <c r="AB63" s="22"/>
-      <c r="AC63" s="22"/>
-      <c r="AD63" s="22"/>
-      <c r="AE63" s="22"/>
-      <c r="AF63" s="22"/>
-      <c r="AG63" s="22"/>
-      <c r="AH63" s="22"/>
-      <c r="AI63" s="22"/>
-      <c r="AJ63" s="22"/>
-      <c r="AK63" s="22"/>
-    </row>
-    <row r="64" spans="1:37">
-      <c r="A64" s="32" t="s">
+    <row r="76" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A76" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
-      <c r="AE64" s="22"/>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="22"/>
-      <c r="AJ64" s="22"/>
-      <c r="AK64" s="22"/>
-    </row>
-    <row r="65" spans="1:37">
-      <c r="A65" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="22"/>
-      <c r="Z65" s="22"/>
-      <c r="AA65" s="22"/>
-      <c r="AB65" s="22"/>
-      <c r="AC65" s="22"/>
-      <c r="AD65" s="22"/>
-      <c r="AE65" s="22"/>
-      <c r="AF65" s="22"/>
-      <c r="AG65" s="22"/>
-      <c r="AH65" s="22"/>
-      <c r="AI65" s="22"/>
-      <c r="AJ65" s="22"/>
-      <c r="AK65" s="22"/>
-    </row>
-    <row r="66" spans="1:37">
-      <c r="A66" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="22"/>
-      <c r="AE66" s="22"/>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="22"/>
-      <c r="AH66" s="22"/>
-      <c r="AI66" s="22"/>
-      <c r="AJ66" s="22"/>
-      <c r="AK66" s="22"/>
-    </row>
-    <row r="67" spans="1:37">
-      <c r="A67" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="22"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="22"/>
-      <c r="AE67" s="22"/>
-      <c r="AF67" s="22"/>
-      <c r="AG67" s="22"/>
-      <c r="AH67" s="22"/>
-      <c r="AI67" s="22"/>
-      <c r="AJ67" s="22"/>
-      <c r="AK67" s="22"/>
-    </row>
-    <row r="68" spans="1:37">
-      <c r="A68" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="22"/>
-      <c r="AI68" s="22"/>
-      <c r="AJ68" s="22"/>
-      <c r="AK68" s="22"/>
-    </row>
-    <row r="69" spans="1:37">
-      <c r="A69" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="22"/>
-      <c r="AB69" s="22"/>
-      <c r="AC69" s="22"/>
-      <c r="AD69" s="22"/>
-      <c r="AE69" s="22"/>
-      <c r="AF69" s="22"/>
-      <c r="AG69" s="22"/>
-      <c r="AH69" s="22"/>
-      <c r="AI69" s="22"/>
-      <c r="AJ69" s="22"/>
-      <c r="AK69" s="22"/>
-    </row>
-    <row r="70" spans="1:37">
-      <c r="A70" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
-      <c r="T70" s="32"/>
-      <c r="U70" s="32"/>
-      <c r="V70" s="32"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="22"/>
-      <c r="Z70" s="22"/>
-      <c r="AA70" s="22"/>
-      <c r="AB70" s="22"/>
-      <c r="AC70" s="22"/>
-      <c r="AD70" s="22"/>
-      <c r="AE70" s="22"/>
-      <c r="AF70" s="22"/>
-      <c r="AG70" s="22"/>
-      <c r="AH70" s="22"/>
-      <c r="AI70" s="22"/>
-      <c r="AJ70" s="22"/>
-      <c r="AK70" s="22"/>
-    </row>
-    <row r="71" spans="1:37">
-      <c r="A71" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32"/>
-      <c r="R71" s="32"/>
-      <c r="S71" s="32"/>
-      <c r="T71" s="32"/>
-      <c r="U71" s="32"/>
-      <c r="V71" s="32"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="22"/>
-      <c r="Y71" s="22"/>
-      <c r="Z71" s="22"/>
-      <c r="AA71" s="22"/>
-      <c r="AB71" s="22"/>
-      <c r="AC71" s="22"/>
-      <c r="AD71" s="22"/>
-      <c r="AE71" s="22"/>
-      <c r="AF71" s="22"/>
-      <c r="AG71" s="22"/>
-      <c r="AH71" s="22"/>
-      <c r="AI71" s="22"/>
-      <c r="AJ71" s="22"/>
-      <c r="AK71" s="22"/>
-    </row>
-    <row r="72" spans="1:37">
-      <c r="A72" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="32"/>
-      <c r="S72" s="32"/>
-      <c r="T72" s="32"/>
-      <c r="U72" s="32"/>
-      <c r="V72" s="32"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="22"/>
-      <c r="Z72" s="22"/>
-      <c r="AA72" s="22"/>
-      <c r="AB72" s="22"/>
-      <c r="AC72" s="22"/>
-      <c r="AD72" s="22"/>
-      <c r="AE72" s="22"/>
-      <c r="AF72" s="22"/>
-      <c r="AG72" s="22"/>
-      <c r="AH72" s="22"/>
-      <c r="AI72" s="22"/>
-      <c r="AJ72" s="22"/>
-      <c r="AK72" s="22"/>
-    </row>
-    <row r="73" spans="1:37">
-      <c r="A73" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="22"/>
-      <c r="Y73" s="22"/>
-      <c r="Z73" s="22"/>
-      <c r="AA73" s="22"/>
-      <c r="AB73" s="22"/>
-      <c r="AC73" s="22"/>
-      <c r="AD73" s="22"/>
-      <c r="AE73" s="22"/>
-      <c r="AF73" s="22"/>
-      <c r="AG73" s="22"/>
-      <c r="AH73" s="22"/>
-      <c r="AI73" s="22"/>
-      <c r="AJ73" s="22"/>
-      <c r="AK73" s="22"/>
-    </row>
-    <row r="74" spans="1:37">
-      <c r="A74" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32"/>
-      <c r="R74" s="32"/>
-      <c r="S74" s="32"/>
-      <c r="T74" s="32"/>
-      <c r="U74" s="32"/>
-      <c r="V74" s="32"/>
-      <c r="W74" s="22"/>
-      <c r="X74" s="22"/>
-      <c r="Y74" s="22"/>
-      <c r="Z74" s="22"/>
-      <c r="AA74" s="22"/>
-      <c r="AB74" s="22"/>
-      <c r="AC74" s="22"/>
-      <c r="AD74" s="22"/>
-      <c r="AE74" s="22"/>
-      <c r="AF74" s="22"/>
-      <c r="AG74" s="22"/>
-      <c r="AH74" s="22"/>
-      <c r="AI74" s="22"/>
-      <c r="AJ74" s="22"/>
-      <c r="AK74" s="22"/>
-    </row>
-    <row r="75" spans="1:37">
-      <c r="A75" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="32"/>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="32"/>
-      <c r="R75" s="32"/>
-      <c r="S75" s="32"/>
-      <c r="T75" s="32"/>
-      <c r="U75" s="32"/>
-      <c r="V75" s="32"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="22"/>
-      <c r="Z75" s="22"/>
-      <c r="AA75" s="22"/>
-      <c r="AB75" s="22"/>
-      <c r="AC75" s="22"/>
-      <c r="AD75" s="22"/>
-      <c r="AE75" s="22"/>
-      <c r="AF75" s="22"/>
-      <c r="AG75" s="22"/>
-      <c r="AH75" s="22"/>
-      <c r="AI75" s="22"/>
-      <c r="AJ75" s="22"/>
-      <c r="AK75" s="22"/>
-    </row>
-    <row r="76" spans="1:37">
-      <c r="A76" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="22"/>
-      <c r="X76" s="22"/>
-      <c r="Y76" s="22"/>
-      <c r="Z76" s="22"/>
-      <c r="AA76" s="22"/>
-      <c r="AB76" s="22"/>
-      <c r="AC76" s="22"/>
-      <c r="AD76" s="22"/>
-      <c r="AE76" s="22"/>
-      <c r="AF76" s="22"/>
-      <c r="AG76" s="22"/>
-      <c r="AH76" s="22"/>
-      <c r="AI76" s="22"/>
-      <c r="AJ76" s="22"/>
-      <c r="AK76" s="22"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="15"/>
+      <c r="AH76" s="15"/>
+      <c r="AI76" s="15"/>
+      <c r="AJ76" s="15"/>
+      <c r="AK76" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A75:V75"/>
-    <mergeCell ref="A76:V76"/>
-    <mergeCell ref="A69:V69"/>
-    <mergeCell ref="A70:V70"/>
-    <mergeCell ref="A71:V71"/>
-    <mergeCell ref="A72:V72"/>
-    <mergeCell ref="A73:V73"/>
-    <mergeCell ref="A74:V74"/>
-    <mergeCell ref="A68:V68"/>
-    <mergeCell ref="A58:V58"/>
-    <mergeCell ref="A59:V59"/>
-    <mergeCell ref="A60:V60"/>
-    <mergeCell ref="A61:V61"/>
-    <mergeCell ref="A62:V62"/>
-    <mergeCell ref="A63:V63"/>
-    <mergeCell ref="A64:V64"/>
-    <mergeCell ref="A65:V65"/>
-    <mergeCell ref="A66:V66"/>
-    <mergeCell ref="A67:V67"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A33:V33"/>
+    <mergeCell ref="A29:V29"/>
+    <mergeCell ref="A30:V30"/>
+    <mergeCell ref="A31:V31"/>
+    <mergeCell ref="A32:V32"/>
+    <mergeCell ref="A45:V45"/>
+    <mergeCell ref="A34:V34"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="A36:V36"/>
+    <mergeCell ref="A37:V37"/>
+    <mergeCell ref="A38:V38"/>
+    <mergeCell ref="A39:V39"/>
+    <mergeCell ref="A40:V40"/>
+    <mergeCell ref="A41:V41"/>
+    <mergeCell ref="A42:V42"/>
+    <mergeCell ref="A43:V43"/>
+    <mergeCell ref="A44:V44"/>
     <mergeCell ref="A57:V57"/>
     <mergeCell ref="A46:V46"/>
     <mergeCell ref="A47:V47"/>
@@ -7638,73 +7556,39 @@
     <mergeCell ref="A54:V54"/>
     <mergeCell ref="A55:V55"/>
     <mergeCell ref="A56:V56"/>
-    <mergeCell ref="A45:V45"/>
-    <mergeCell ref="A34:V34"/>
-    <mergeCell ref="A35:V35"/>
-    <mergeCell ref="A36:V36"/>
-    <mergeCell ref="A37:V37"/>
-    <mergeCell ref="A38:V38"/>
-    <mergeCell ref="A39:V39"/>
-    <mergeCell ref="A40:V40"/>
-    <mergeCell ref="A41:V41"/>
-    <mergeCell ref="A42:V42"/>
-    <mergeCell ref="A43:V43"/>
-    <mergeCell ref="A44:V44"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A33:V33"/>
-    <mergeCell ref="A29:V29"/>
-    <mergeCell ref="A30:V30"/>
-    <mergeCell ref="A31:V31"/>
-    <mergeCell ref="A32:V32"/>
+    <mergeCell ref="A68:V68"/>
+    <mergeCell ref="A58:V58"/>
+    <mergeCell ref="A59:V59"/>
+    <mergeCell ref="A60:V60"/>
+    <mergeCell ref="A61:V61"/>
+    <mergeCell ref="A62:V62"/>
+    <mergeCell ref="A63:V63"/>
+    <mergeCell ref="A64:V64"/>
+    <mergeCell ref="A65:V65"/>
+    <mergeCell ref="A66:V66"/>
+    <mergeCell ref="A67:V67"/>
+    <mergeCell ref="A75:V75"/>
+    <mergeCell ref="A76:V76"/>
+    <mergeCell ref="A69:V69"/>
+    <mergeCell ref="A70:V70"/>
+    <mergeCell ref="A71:V71"/>
+    <mergeCell ref="A72:V72"/>
+    <mergeCell ref="A73:V73"/>
+    <mergeCell ref="A74:V74"/>
   </mergeCells>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:AJ28 B14:AA14 B16:AD22 B2:AJ5 B13:AJ13 B6:AL12 B15:AB15">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="false">
+  <conditionalFormatting sqref="B2:B28 C8:C9">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK5 AK23:AK28 AK13">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AK2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE14:AK14 AE16:AK22 AF15:AK15">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AE14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL5 AL13 AL23:AL28">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AL2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14:AL22">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AL14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD14">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AD14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC14">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AC14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB14">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AB14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC15:AE15">
+  <conditionalFormatting sqref="C2:AL7 C10:AL28 D8:AL9">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",AC15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("false",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
